--- a/public/template-student.xlsx
+++ b/public/template-student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-Laravel\Input-Data\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87639E58-5992-4FF4-BB8F-097BFA27957F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35971C16-3FDA-4437-815E-D3E821B2E888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11835" xr2:uid="{71C20799-9C6D-4C89-A9FD-5ADDA66E628F}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{71C20799-9C6D-4C89-A9FD-5ADDA66E628F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +468,7 @@
         <v>131312</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>121231356123</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>1233231123</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>12356765123</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
